--- a/Bugs reports/Bugs reports Duolingo.xlsx
+++ b/Bugs reports/Bugs reports Duolingo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bug report 1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Last Update</t>
-  </si>
-  <si>
-    <t>Best Friends</t>
   </si>
   <si>
     <t>bugtracker</t>
@@ -300,6 +297,9 @@
       </rPr>
       <t>Ukrainian-speaking and Russian-speaking users can choose any language for learning</t>
     </r>
+  </si>
+  <si>
+    <t>Duolingo</t>
   </si>
 </sst>
 </file>
@@ -537,20 +537,8 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -563,6 +551,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -580,22 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="5">
         <v>45027</v>
@@ -1124,380 +1124,380 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="37">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B10" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:6" ht="372.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1522,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,13 +1560,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="5">
         <v>45027</v>
@@ -1576,380 +1576,380 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="37">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="B9" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B10" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:6" ht="373.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1973,7 +1973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
@@ -2012,13 +2012,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="5">
         <v>45027</v>
@@ -2028,380 +2028,380 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="37">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="B9" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:6" ht="374.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">
